--- a/第六组日报.xlsx
+++ b/第六组日报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>第6组5.17日报</t>
   </si>
@@ -46,34 +46,31 @@
     <t>备注</t>
   </si>
   <si>
-    <t>负责前端界面的设计和代码</t>
-  </si>
-  <si>
-    <t>苟亦丹</t>
+    <t>各个子页面的更改</t>
+  </si>
+  <si>
+    <t>向华杰</t>
   </si>
   <si>
     <t xml:space="preserve"> 9:00</t>
   </si>
   <si>
-    <t>协助和修改前端代码</t>
+    <t>相应HTML和css的更改</t>
   </si>
   <si>
     <t>张亦凡</t>
   </si>
   <si>
-    <t>前端界面的美化</t>
-  </si>
-  <si>
-    <t>css的编写</t>
-  </si>
-  <si>
-    <t>向华杰</t>
-  </si>
-  <si>
-    <t>丰富、美化子页面</t>
+    <t>插入相关图片</t>
   </si>
   <si>
     <t>田东梅</t>
+  </si>
+  <si>
+    <t>对整个前端框架的进一步优化</t>
+  </si>
+  <si>
+    <t>展示本组的前端设计</t>
   </si>
 </sst>
 </file>
@@ -105,6 +102,86 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -114,8 +191,48 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -128,126 +245,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -270,13 +267,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,61 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,103 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,15 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -499,54 +487,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +517,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -585,6 +543,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,7 +1192,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1336,7 +1333,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="8">
         <v>0.604166666666667</v>
@@ -1363,12 +1360,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" s="8">
         <v>0.604166666666667</v>
@@ -1400,7 +1397,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" s="8">
         <v>0.791666666666667</v>
